--- a/CEOtoliths.xlsx
+++ b/CEOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890F3C4-22BB-4EF4-A9A3-2BB1B9313B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154E1E56-CEA0-46B2-83D7-01439D5E70DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E661B68-B576-4055-810A-24013F97BEA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Trawl:</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>CENK001</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Used as voucher</t>
   </si>
 </sst>
 </file>
@@ -457,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797E0AC3-B325-484D-9D39-0D985993F19D}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +505,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -522,8 +534,14 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -544,6 +562,9 @@
       </c>
       <c r="H3" t="s">
         <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
